--- a/Subnet-Guide.xlsx
+++ b/Subnet-Guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Penn\Penn-HW\Pen-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFF08C-4456-42BF-90F7-F0181B018954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A502E37-0FF7-43A5-8915-CCEE5149838F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{B9A077C0-2776-42F8-9EA0-A3461B8C54FE}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" xr2:uid="{B9A077C0-2776-42F8-9EA0-A3461B8C54FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Subnet Cheat Sheet" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>/1</t>
   </si>
@@ -169,6 +161,9 @@
   </si>
   <si>
     <t>Broadcast - Last Address</t>
+  </si>
+  <si>
+    <t>192.168.1.0/24</t>
   </si>
 </sst>
 </file>
@@ -736,20 +731,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8E90E0-82B2-4B6F-83AE-035E91C35AC1}">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.29296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5859375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="18" x14ac:dyDescent="0.6">
       <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
@@ -762,7 +759,7 @@
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B2" s="4"/>
       <c r="C2" s="20" t="s">
         <v>35</v>
@@ -775,7 +772,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
@@ -804,7 +801,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B4" s="6" t="s">
         <v>32</v>
       </c>
@@ -841,7 +838,7 @@
         <v>16777216</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B5" s="4"/>
       <c r="C5" s="20" t="s">
         <v>36</v>
@@ -854,7 +851,7 @@
       <c r="I5" s="20"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B6" s="5" t="s">
         <v>33</v>
       </c>
@@ -883,7 +880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
@@ -920,7 +917,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B8" s="4"/>
       <c r="C8" s="20" t="s">
         <v>37</v>
@@ -933,7 +930,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -962,7 +959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
@@ -998,7 +995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B11" s="4"/>
       <c r="C11" s="20" t="s">
         <v>38</v>
@@ -1011,7 +1008,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B13" s="6" t="s">
         <v>32</v>
       </c>
@@ -1069,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.5">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1098,8 +1095,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1109,7 +1106,7 @@
       <c r="D17" s="12"/>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
         <v>43</v>
@@ -1117,15 +1114,18 @@
       <c r="D18" s="8"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B19" s="14"/>
       <c r="C19" s="9" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
         <v>44</v>
@@ -1134,31 +1134,31 @@
       <c r="E20" s="19"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.5">
       <c r="K29" s="1"/>
     </row>
   </sheetData>
@@ -1180,23 +1180,23 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.29296875" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="3" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1171875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="4.1171875" bestFit="1" customWidth="1"/>
     <col min="20" max="22" width="3" bestFit="1" customWidth="1"/>
     <col min="23" max="26" width="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.1171875" bestFit="1" customWidth="1"/>
     <col min="29" max="31" width="3" bestFit="1" customWidth="1"/>
     <col min="32" max="35" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A1">
         <v>128</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>/24</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.5">
       <c r="I3">
         <f>(A1*A2)+(B1*B2)+(C1*C2)+(D1*D2)+(E1*E2)+(F1*F2)+(G1*G2)+(H1*H2)</f>
         <v>255</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.5">
       <c r="AJ6" t="s">
         <v>32</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>2^8</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.5">
       <c r="AJ7" t="s">
         <v>32</v>
       </c>
